--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_发现组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.0 新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -135,18 +130,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>角色管理全体功能（包含：创建、修改、删除、配置等功能）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>房东（APP/PC）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>消息模板类型管理功能（包含：创建、修改、删除、配置等功能）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -183,10 +170,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>彭堃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>李亚林、陈佳文</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -196,14 +179,46 @@
   </si>
   <si>
     <t>吕崇新、陈佳文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基/余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理全体功能（包含：创建、修改、删除、配置、操作日志等功能）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志基本功能可用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能可用，房东APP开发未完成</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -875,14 +890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -906,7 +921,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -965,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -976,38 +991,46 @@
         <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="16">
         <v>42597</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="16">
         <v>42597</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="24"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1018,38 +1041,46 @@
         <v>33</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="16">
         <v>42597</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="16">
         <v>42597</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="28"/>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1060,38 +1091,46 @@
         <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="16">
         <v>42597</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="16">
         <v>42597</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="28"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1102,80 +1141,98 @@
         <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16">
         <v>42597</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="16">
         <v>42597</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="28"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>42597</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="16">
         <v>42597</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="28"/>
+      <c r="S6" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1186,38 +1243,46 @@
         <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="16">
         <v>42597</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="16">
         <v>42597</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="28"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1228,80 +1293,98 @@
         <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="16">
         <v>42597</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="16">
         <v>42597</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="28"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="16">
         <v>42597</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="16">
         <v>42597</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="28"/>
+      <c r="S9" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="T9" s="29"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1312,69 +1395,57 @@
         <v>33</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="16">
         <v>42597</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="16">
         <v>42597</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
       <c r="S10" s="28"/>
       <c r="T10" s="29"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="16">
-        <v>42597</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="16">
-        <v>42597</v>
-      </c>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="24"/>
       <c r="N11" s="16"/>
@@ -1385,7 +1456,7 @@
       <c r="S11" s="28"/>
       <c r="T11" s="29"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="15"/>
@@ -1407,7 +1478,7 @@
       <c r="S12" s="28"/>
       <c r="T12" s="29"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
@@ -1429,7 +1500,7 @@
       <c r="S13" s="28"/>
       <c r="T13" s="29"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
@@ -1451,7 +1522,7 @@
       <c r="S14" s="28"/>
       <c r="T14" s="29"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
@@ -1473,7 +1544,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1495,7 +1566,7 @@
       <c r="S16" s="28"/>
       <c r="T16" s="29"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1517,7 +1588,7 @@
       <c r="S17" s="28"/>
       <c r="T17" s="29"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1539,7 +1610,7 @@
       <c r="S18" s="28"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1561,7 +1632,7 @@
       <c r="S19" s="28"/>
       <c r="T19" s="29"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1583,7 +1654,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="29"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1605,7 +1676,7 @@
       <c r="S21" s="28"/>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
@@ -1627,7 +1698,7 @@
       <c r="S22" s="28"/>
       <c r="T22" s="29"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
@@ -1649,7 +1720,7 @@
       <c r="S23" s="28"/>
       <c r="T23" s="29"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
@@ -1671,7 +1742,7 @@
       <c r="S24" s="28"/>
       <c r="T24" s="29"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
@@ -1693,7 +1764,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="29"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="C26" s="15"/>
@@ -1715,7 +1786,7 @@
       <c r="S26" s="28"/>
       <c r="T26" s="29"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="17"/>
       <c r="C27" s="15"/>
@@ -1737,7 +1808,7 @@
       <c r="S27" s="28"/>
       <c r="T27" s="29"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="C28" s="15"/>
@@ -1759,7 +1830,7 @@
       <c r="S28" s="28"/>
       <c r="T28" s="29"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="C29" s="15"/>
@@ -1781,7 +1852,7 @@
       <c r="S29" s="28"/>
       <c r="T29" s="29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="C30" s="15"/>
@@ -1803,7 +1874,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="29"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="17"/>
       <c r="C31" s="15"/>
@@ -1825,7 +1896,7 @@
       <c r="S31" s="28"/>
       <c r="T31" s="29"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="C32" s="15"/>
@@ -1847,95 +1918,93 @@
       <c r="S32" s="28"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="24"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="19"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="19"/>
       <c r="T33" s="29"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="24"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="19"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="19"/>
       <c r="T34" s="29"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="1:20" ht="16.5">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:20" ht="16.5">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="19"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="29"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1956,7 +2025,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1977,7 +2046,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1998,7 +2067,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2019,7 +2088,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2040,7 +2109,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2061,7 +2130,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2082,7 +2151,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2103,7 +2172,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2124,7 +2193,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2145,7 +2214,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2166,7 +2235,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2187,7 +2256,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2208,7 +2277,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2229,7 +2298,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2250,7 +2319,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2271,7 +2340,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2292,7 +2361,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2313,7 +2382,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2334,7 +2403,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2355,7 +2424,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2376,7 +2445,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2397,7 +2466,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2418,7 +2487,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2439,7 +2508,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2460,7 +2529,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2481,7 +2550,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2502,7 +2571,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2523,7 +2592,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2544,7 +2613,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2565,7 +2634,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2586,7 +2655,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2607,7 +2676,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2628,7 +2697,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2649,7 +2718,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2670,7 +2739,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2691,7 +2760,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2712,7 +2781,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2733,7 +2802,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2754,7 +2823,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2775,7 +2844,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2796,7 +2865,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2817,7 +2886,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2838,7 +2907,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2859,7 +2928,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2880,7 +2949,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2901,7 +2970,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2922,7 +2991,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2943,7 +3012,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2964,7 +3033,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2985,7 +3054,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3006,7 +3075,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3027,7 +3096,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3048,12 +3117,12 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="23"/>
       <c r="G90" s="21"/>
       <c r="H90" s="23"/>
@@ -3069,12 +3138,12 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="23"/>
       <c r="G91" s="21"/>
       <c r="H91" s="23"/>
@@ -3090,7 +3159,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3111,7 +3180,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3132,7 +3201,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3153,7 +3222,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3174,11 +3243,11 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="15"/>
+      <c r="D96" s="21"/>
       <c r="E96" s="21"/>
       <c r="F96" s="23"/>
       <c r="G96" s="21"/>
@@ -3195,11 +3264,11 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="23"/>
       <c r="G97" s="21"/>
@@ -3216,7 +3285,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3237,7 +3306,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3258,7 +3327,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3279,7 +3348,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3300,7 +3369,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3321,7 +3390,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3342,7 +3411,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3363,7 +3432,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3384,7 +3453,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3405,7 +3474,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3426,7 +3495,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3447,7 +3516,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3468,7 +3537,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3489,7 +3558,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3510,7 +3579,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3531,7 +3600,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3552,7 +3621,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3573,7 +3642,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3594,7 +3663,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3615,7 +3684,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3636,7 +3705,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3657,7 +3726,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3678,7 +3747,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3699,7 +3768,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3720,7 +3789,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3741,7 +3810,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3762,7 +3831,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3783,7 +3852,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3804,7 +3873,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3825,7 +3894,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3846,7 +3915,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3867,7 +3936,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3888,7 +3957,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3909,7 +3978,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3930,7 +3999,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3951,7 +4020,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3972,7 +4041,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3993,7 +4062,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4014,7 +4083,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4035,7 +4104,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4056,7 +4125,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4077,7 +4146,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4098,7 +4167,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4119,7 +4188,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4140,7 +4209,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4161,7 +4230,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4182,7 +4251,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4203,7 +4272,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4224,7 +4293,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4245,7 +4314,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4266,7 +4335,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4287,7 +4356,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4308,7 +4377,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4329,7 +4398,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4350,7 +4419,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4371,7 +4440,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4392,7 +4461,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4413,7 +4482,7 @@
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4434,7 +4503,7 @@
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4450,12 +4519,9 @@
       <c r="M156" s="21"/>
       <c r="N156" s="23"/>
       <c r="O156" s="22"/>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
-      <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4471,12 +4537,9 @@
       <c r="M157" s="21"/>
       <c r="N157" s="23"/>
       <c r="O157" s="22"/>
-      <c r="P157" s="21"/>
-      <c r="Q157" s="21"/>
-      <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4494,7 +4557,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4512,7 +4575,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4530,7 +4593,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4548,7 +4611,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4566,7 +4629,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4584,7 +4647,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4602,7 +4665,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4620,7 +4683,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4638,7 +4701,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4656,7 +4719,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4674,7 +4737,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4692,7 +4755,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4710,7 +4773,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4728,7 +4791,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4746,7 +4809,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4764,7 +4827,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4782,7 +4845,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4800,7 +4863,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4818,7 +4881,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4836,7 +4899,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4854,7 +4917,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4872,7 +4935,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4890,7 +4953,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4908,7 +4971,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4926,7 +4989,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4944,7 +5007,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -4962,7 +5025,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -4980,7 +5043,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -4998,7 +5061,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5016,7 +5079,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5034,7 +5097,7 @@
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5052,7 +5115,7 @@
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5070,42 +5133,6 @@
       <c r="O190" s="22"/>
       <c r="S190" s="22"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="23"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-      <c r="S191" s="22"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A192" s="21"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="23"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="21"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-      <c r="S192" s="22"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:S2"/>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5115,14 +5142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5133,7 +5160,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5159,7 +5186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5169,7 +5196,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5179,7 +5206,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5189,7 +5216,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5199,7 +5226,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5209,7 +5236,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5219,7 +5246,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5229,7 +5256,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5239,7 +5266,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5249,7 +5276,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5259,7 +5286,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5269,7 +5296,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5279,7 +5306,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5289,7 +5316,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5299,7 +5326,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5309,7 +5336,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5319,7 +5346,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5329,7 +5356,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
